--- a/meta/3-9-1-1.xlsx
+++ b/meta/3-9-1-1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE38E25B-CC3C-43FC-A5F7-F8AAA90225FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.9.1.1" sheetId="2" r:id="rId1"/>
@@ -161,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +282,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -294,9 +295,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -329,9 +327,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -347,9 +345,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +385,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -422,6 +420,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -457,9 +472,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,244 +664,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:2" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="4"/>
-      <c r="K65" s="2"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="4"/>
+      <c r="K63" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2" display="gulhumara@mail.ru"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" display="gulhumara@mail.ru" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/meta/3-9-1-1.xlsx
+++ b/meta/3-9-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>3.9.1.1.Смертность от токсического действия окиси углерода на 100 000 населения</t>
   </si>
   <si>
-    <t>Национальный статистический комитет Кыргызской Республики</t>
-  </si>
-  <si>
     <t xml:space="preserve">Таипова Т.С. </t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>(0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Уровень смертности, связанный с отравлением угарным газом, возникшее в результате вдыхания опасных концентраций окиси углерода.</t>
@@ -157,18 +151,40 @@
   <si>
     <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/metadata/files/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/.
 Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет Кыргызской Республики (Отдел демографической статистики)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,25 +251,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -566,7 +590,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +640,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -625,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -641,15 +665,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -715,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,7 +755,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
